--- a/Jobs to do.xlsx
+++ b/Jobs to do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -85,6 +85,27 @@
   </si>
   <si>
     <t xml:space="preserve">Sign in with social media  </t>
+  </si>
+  <si>
+    <t>About page</t>
+  </si>
+  <si>
+    <t>KASUN</t>
+  </si>
+  <si>
+    <t>Empty page without content</t>
+  </si>
+  <si>
+    <t>Cotact page</t>
+  </si>
+  <si>
+    <t>Evaluation page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questionnaire </t>
+  </si>
+  <si>
+    <t>questionnaire confirmation page</t>
   </si>
 </sst>
 </file>
@@ -162,13 +183,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="68.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
@@ -507,14 +528,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -590,9 +611,6 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -604,9 +622,6 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
@@ -638,9 +653,6 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
@@ -652,9 +664,6 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
@@ -663,6 +672,77 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs to do.xlsx
+++ b/Jobs to do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>questionnaire confirmation page</t>
+  </si>
+  <si>
+    <t>Validation</t>
   </si>
 </sst>
 </file>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -735,6 +738,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
@@ -743,6 +749,14 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs to do.xlsx
+++ b/Jobs to do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Validation</t>
+  </si>
+  <si>
+    <t>5. Remve following sections</t>
+  </si>
+  <si>
+    <t>How Our Services Can Help you?</t>
+  </si>
+  <si>
+    <t>WHY CHOOSE US?</t>
+  </si>
+  <si>
+    <t>OUR EXPERT</t>
+  </si>
+  <si>
+    <t>LATEST NEWS</t>
   </si>
 </sst>
 </file>
@@ -171,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,168 +612,193 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C12" s="1">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>70</v>
       </c>
       <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>30</v>
       </c>
     </row>
